--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="111">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,193 +46,217 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>crap</t>
+    <t>poor</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>disappointed</t>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>thin</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>probably</t>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>broken</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
-    <t>tiny</t>
+    <t>apart</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>broken</t>
+    <t>di</t>
+  </si>
+  <si>
+    <t>plastic</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>plastic</t>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>might</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
   <si>
     <t>paint</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>un</t>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>short</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>thought</t>
+    <t>fell</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
-    <t>di</t>
+    <t>light</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>bad</t>
   </si>
   <si>
     <t>bit</t>
   </si>
   <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>seems</t>
+    <t>parts</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
     <t>worked</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
     <t>back</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>expected</t>
+    <t>need</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>put</t>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>buy</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>much</t>
   </si>
   <si>
     <t>even</t>
@@ -241,21 +265,15 @@
     <t>made</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>toy</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -265,7 +283,7 @@
     <t>awesome</t>
   </si>
   <si>
-    <t>fantastic</t>
+    <t>enjoyable</t>
   </si>
   <si>
     <t>amazing</t>
@@ -274,15 +292,12 @@
     <t>favorite</t>
   </si>
   <si>
-    <t>enjoyable</t>
+    <t>classic</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>classic</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
@@ -295,37 +310,40 @@
     <t>loves</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>learn</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>learn</t>
-  </si>
-  <si>
     <t>christmas</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>enjoy</t>
   </si>
   <si>
     <t>fun</t>
   </si>
   <si>
+    <t>game</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>easy</t>
+    <t>play</t>
   </si>
   <si>
     <t>positive</t>
@@ -686,7 +704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -694,10 +712,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -776,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K3">
         <v>0.8214285714285714</v>
@@ -826,16 +844,16 @@
         <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K4">
-        <v>0.7692307692307693</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="L4">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M4">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -847,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -855,13 +873,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.765625</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C5">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -873,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K5">
-        <v>0.75</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -897,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -905,13 +923,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7619047619047619</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -923,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K6">
-        <v>0.7407407407407407</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -947,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -955,13 +973,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7330097087378641</v>
+        <v>0.7365591397849462</v>
       </c>
       <c r="C7">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D7">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -973,19 +991,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7">
-        <v>0.6666666666666666</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="L7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -997,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1005,13 +1023,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7323943661971831</v>
+        <v>0.734375</v>
       </c>
       <c r="C8">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D8">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1023,19 +1041,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K8">
-        <v>0.625</v>
+        <v>0.6037735849056604</v>
       </c>
       <c r="L8">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="M8">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1047,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1055,13 +1073,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7105263157894737</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1073,19 +1091,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K9">
-        <v>0.53125</v>
+        <v>0.515625</v>
       </c>
       <c r="L9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1097,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1105,13 +1123,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7043010752688172</v>
+        <v>0.7184466019417476</v>
       </c>
       <c r="C10">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="D10">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1123,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K10">
-        <v>0.5283018867924528</v>
+        <v>0.4057971014492754</v>
       </c>
       <c r="L10">
         <v>28</v>
@@ -1147,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1155,13 +1173,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.668918918918919</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C11">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1173,19 +1191,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K11">
-        <v>0.4057971014492754</v>
+        <v>0.3877049180327869</v>
       </c>
       <c r="L11">
-        <v>28</v>
+        <v>473</v>
       </c>
       <c r="M11">
-        <v>28</v>
+        <v>473</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1197,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>41</v>
+        <v>747</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1205,13 +1223,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6545454545454545</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C12">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1223,19 +1241,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K12">
-        <v>0.360655737704918</v>
+        <v>0.3443328550932568</v>
       </c>
       <c r="L12">
-        <v>440</v>
+        <v>240</v>
       </c>
       <c r="M12">
-        <v>440</v>
+        <v>240</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1247,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>780</v>
+        <v>457</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1255,13 +1273,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6296296296296297</v>
+        <v>0.6283783783783784</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1273,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K13">
-        <v>0.3558106169296987</v>
+        <v>0.3112033195020747</v>
       </c>
       <c r="L13">
-        <v>248</v>
+        <v>150</v>
       </c>
       <c r="M13">
-        <v>248</v>
+        <v>150</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1297,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>449</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1305,13 +1323,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.625</v>
+        <v>0.6134453781512605</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="D14">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1323,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K14">
-        <v>0.2883817427385892</v>
+        <v>0.2289156626506024</v>
       </c>
       <c r="L14">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="M14">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1347,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>343</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1355,37 +1373,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6206896551724138</v>
+        <v>0.6</v>
       </c>
       <c r="C15">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>18</v>
       </c>
-      <c r="D15">
-        <v>18</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>11</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K15">
-        <v>0.25</v>
+        <v>0.1916666666666667</v>
       </c>
       <c r="L15">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M15">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1397,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1405,13 +1423,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6190476190476191</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1423,19 +1441,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K16">
-        <v>0.2232415902140673</v>
+        <v>0.1896024464831804</v>
       </c>
       <c r="L16">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="M16">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1447,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>254</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1455,13 +1473,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5882352941176471</v>
+        <v>0.5625</v>
       </c>
       <c r="C17">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="D17">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1473,19 +1491,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K17">
-        <v>0.2228915662650602</v>
+        <v>0.15625</v>
       </c>
       <c r="L17">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M17">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1497,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>129</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1526,16 +1544,16 @@
         <v>17</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K18">
-        <v>0.1693121693121693</v>
+        <v>0.1534391534391534</v>
       </c>
       <c r="L18">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1547,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1555,13 +1573,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5370370370370371</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C19">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1576,16 +1594,16 @@
         <v>25</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K19">
-        <v>0.1328125</v>
+        <v>0.1365461847389558</v>
       </c>
       <c r="L19">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1597,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>111</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1626,16 +1644,16 @@
         <v>17</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="K20">
-        <v>0.1204819277108434</v>
+        <v>0.1258741258741259</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M20">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1647,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>219</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1655,13 +1673,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4840579710144928</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="C21">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="D21">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1673,31 +1691,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>178</v>
+        <v>41</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="K21">
-        <v>0.1075268817204301</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="L21">
         <v>20</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1705,13 +1723,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4631578947368421</v>
+        <v>0.5</v>
       </c>
       <c r="C22">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D22">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1723,19 +1741,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="K22">
-        <v>0.09991235758106924</v>
+        <v>0.1069237510955302</v>
       </c>
       <c r="L22">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M22">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1747,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1027</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1755,13 +1773,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4457831325301205</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="C23">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D23">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1773,31 +1791,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="K23">
-        <v>0.05571030640668524</v>
+        <v>0.04480519480519481</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>339</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1805,13 +1823,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4444444444444444</v>
+        <v>0.4840579710144928</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="D24">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1823,31 +1841,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>30</v>
+        <v>178</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="K24">
-        <v>0.0474025974025974</v>
+        <v>0.04456824512534819</v>
       </c>
       <c r="L24">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="M24">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="N24">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1467</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1855,49 +1873,49 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4444444444444444</v>
+        <v>0.46875</v>
       </c>
       <c r="C25">
+        <v>30</v>
+      </c>
+      <c r="D25">
+        <v>30</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>34</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K25">
+        <v>0.0267022696929239</v>
+      </c>
+      <c r="L25">
         <v>20</v>
       </c>
-      <c r="D25">
-        <v>20</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>25</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K25">
-        <v>0.04545454545454546</v>
-      </c>
-      <c r="L25">
-        <v>17</v>
-      </c>
       <c r="M25">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>357</v>
+        <v>729</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1905,13 +1923,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4173228346456693</v>
+        <v>0.4488188976377953</v>
       </c>
       <c r="C26">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D26">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1923,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1931,13 +1949,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3968253968253968</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D27">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1949,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1957,13 +1975,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.375</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="C28">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D28">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1975,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>80</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1983,13 +2001,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3707865168539326</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="C29">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D29">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2001,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2009,13 +2027,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3571428571428572</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C30">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D30">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2027,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2035,13 +2053,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.35</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="C31">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D31">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2053,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2061,13 +2079,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3488372093023256</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="C32">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D32">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2079,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2087,13 +2105,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3222748815165877</v>
+        <v>0.359375</v>
       </c>
       <c r="C33">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D33">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2105,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>143</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2113,13 +2131,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3118811881188119</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="C34">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="D34">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2131,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>139</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2139,13 +2157,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3076923076923077</v>
+        <v>0.3168316831683168</v>
       </c>
       <c r="C35">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D35">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2157,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>81</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2165,13 +2183,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.296875</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="C36">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D36">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2183,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2191,13 +2209,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2959183673469388</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="C37">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D37">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2209,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>69</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2217,13 +2235,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.293103448275862</v>
+        <v>0.3033175355450237</v>
       </c>
       <c r="C38">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="D38">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2235,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>41</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2269,13 +2287,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2777777777777778</v>
+        <v>0.2905982905982906</v>
       </c>
       <c r="C40">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D40">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2287,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>39</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2295,13 +2313,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2678571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C41">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D41">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2313,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2321,13 +2339,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2622950819672131</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C42">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D42">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2339,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2347,13 +2365,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.253968253968254</v>
+        <v>0.2422680412371134</v>
       </c>
       <c r="C43">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D43">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2365,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>47</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2373,13 +2391,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2525773195876289</v>
+        <v>0.2388059701492537</v>
       </c>
       <c r="C44">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D44">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2391,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>145</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2399,13 +2417,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2162162162162162</v>
+        <v>0.2346938775510204</v>
       </c>
       <c r="C45">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D45">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2417,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2425,13 +2443,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2077151335311573</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="C46">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="D46">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2443,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>534</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2451,13 +2469,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1944444444444444</v>
+        <v>0.2136498516320475</v>
       </c>
       <c r="C47">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="D47">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2469,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>87</v>
+        <v>530</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2477,13 +2495,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1930379746835443</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="C48">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="D48">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2495,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>255</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2503,13 +2521,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1930379746835443</v>
+        <v>0.1993670886075949</v>
       </c>
       <c r="C49">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D49">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2521,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2529,13 +2547,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1920289855072464</v>
+        <v>0.1992753623188406</v>
       </c>
       <c r="C50">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D50">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2547,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2555,13 +2573,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.18</v>
+        <v>0.1885714285714286</v>
       </c>
       <c r="C51">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D51">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2573,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>164</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2581,13 +2599,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1775700934579439</v>
+        <v>0.185</v>
       </c>
       <c r="C52">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D52">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2599,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2607,13 +2625,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1758241758241758</v>
+        <v>0.180379746835443</v>
       </c>
       <c r="C53">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D53">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2625,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>75</v>
+        <v>259</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2633,13 +2651,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1629955947136564</v>
+        <v>0.1758241758241758</v>
       </c>
       <c r="C54">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="D54">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2651,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>380</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2659,13 +2677,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1528662420382166</v>
+        <v>0.1719745222929936</v>
       </c>
       <c r="C55">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D55">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2677,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2685,25 +2703,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1498559077809798</v>
+        <v>0.1682242990654206</v>
       </c>
       <c r="C56">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D56">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E56">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>295</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2711,25 +2729,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1371428571428571</v>
+        <v>0.1613832853025937</v>
       </c>
       <c r="C57">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D57">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>151</v>
+        <v>291</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2737,13 +2755,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1357142857142857</v>
+        <v>0.1563876651982379</v>
       </c>
       <c r="C58">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="D58">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2755,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>121</v>
+        <v>383</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2763,13 +2781,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1355932203389831</v>
+        <v>0.154639175257732</v>
       </c>
       <c r="C59">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D59">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2781,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2789,13 +2807,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.125</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="C60">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D60">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2807,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2815,25 +2833,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1161048689138577</v>
+        <v>0.1417322834645669</v>
       </c>
       <c r="C61">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D61">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>236</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2841,13 +2859,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1088709677419355</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C62">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D62">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2859,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>221</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2867,25 +2885,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1058823529411765</v>
+        <v>0.1357142857142857</v>
       </c>
       <c r="C63">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D63">
         <v>19</v>
       </c>
       <c r="E63">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>152</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2893,25 +2911,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.09803921568627451</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="C64">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D64">
         <v>16</v>
       </c>
       <c r="E64">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>138</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2919,13 +2937,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.08493150684931507</v>
+        <v>0.1307692307692308</v>
       </c>
       <c r="C65">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D65">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2937,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>334</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2945,25 +2963,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.07853403141361257</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C66">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D66">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>176</v>
+        <v>221</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2971,7 +2989,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07605633802816901</v>
+        <v>0.101123595505618</v>
       </c>
       <c r="C67">
         <v>27</v>
@@ -2989,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>328</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2997,13 +3015,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.075</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="C68">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D68">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3015,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>259</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3023,25 +3041,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.06349206349206349</v>
+        <v>0.09424083769633508</v>
       </c>
       <c r="C69">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D69">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E69">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>295</v>
+        <v>173</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3049,25 +3067,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.06013363028953229</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="C70">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D70">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>422</v>
+        <v>172</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3075,25 +3093,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05930807248764415</v>
+        <v>0.07605633802816901</v>
       </c>
       <c r="C71">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D71">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E71">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>571</v>
+        <v>328</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3101,25 +3119,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.04439252336448598</v>
+        <v>0.07397260273972603</v>
       </c>
       <c r="C72">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D72">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E72">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>409</v>
+        <v>338</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3127,25 +3145,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.04428904428904429</v>
+        <v>0.07126948775055679</v>
       </c>
       <c r="C73">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D73">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E73">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3153,25 +3171,181 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.04281345565749235</v>
+        <v>0.06105610561056106</v>
       </c>
       <c r="C74">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D74">
+        <v>39</v>
+      </c>
+      <c r="E74">
+        <v>0.05</v>
+      </c>
+      <c r="F74">
+        <v>0.95</v>
+      </c>
+      <c r="G74" t="b">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75">
+        <v>0.05827505827505827</v>
+      </c>
+      <c r="C75">
+        <v>25</v>
+      </c>
+      <c r="D75">
+        <v>30</v>
+      </c>
+      <c r="E75">
+        <v>0.17</v>
+      </c>
+      <c r="F75">
+        <v>0.83</v>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76">
+        <v>0.05714285714285714</v>
+      </c>
+      <c r="C76">
+        <v>16</v>
+      </c>
+      <c r="D76">
+        <v>16</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77">
+        <v>0.05678233438485805</v>
+      </c>
+      <c r="C77">
+        <v>18</v>
+      </c>
+      <c r="D77">
+        <v>18</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78">
+        <v>0.04447852760736196</v>
+      </c>
+      <c r="C78">
         <v>29</v>
       </c>
-      <c r="E74">
-        <v>0.03</v>
-      </c>
-      <c r="F74">
-        <v>0.97</v>
-      </c>
-      <c r="G74" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74">
-        <v>626</v>
+      <c r="D78">
+        <v>32</v>
+      </c>
+      <c r="E78">
+        <v>0.09</v>
+      </c>
+      <c r="F78">
+        <v>0.91</v>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79">
+        <v>0.04171934260429835</v>
+      </c>
+      <c r="C79">
+        <v>33</v>
+      </c>
+      <c r="D79">
+        <v>36</v>
+      </c>
+      <c r="E79">
+        <v>0.08</v>
+      </c>
+      <c r="F79">
+        <v>0.92</v>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80">
+        <v>0.02976190476190476</v>
+      </c>
+      <c r="C80">
+        <v>15</v>
+      </c>
+      <c r="D80">
+        <v>15</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>489</v>
       </c>
     </row>
   </sheetData>
